--- a/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10708"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richer/Documents/PhD/Projects/HealthPsychology/CARWatch/Code/carwatch_analysis/experiments/2022_car_sampling_pnec/results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F512AB46-93CC-AF4B-B9B4-3A62D9D50637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sampling_Delay_Mean_IQR" sheetId="1" r:id="rId1"/>
@@ -19,7 +13,7 @@
     <sheet name="Adherence_App_Selfreport" sheetId="4" r:id="rId4"/>
     <sheet name="Adherence_Sensor_App_Selfreport" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -56,19 +50,19 @@
     <t>log_type</t>
   </si>
   <si>
-    <t>Selfreport without App</t>
-  </si>
-  <si>
-    <t>Selfreport with App</t>
+    <t>Selfreport w/o App</t>
+  </si>
+  <si>
+    <t>Selfreport w/ App</t>
   </si>
   <si>
     <t>App</t>
   </si>
   <si>
-    <t>Sensor + Selfreport without App</t>
-  </si>
-  <si>
-    <t>Sensor + Selfreport with App</t>
+    <t>Sensor + Selfreport w/o App</t>
+  </si>
+  <si>
+    <t>Sensor + Selfreport w/ App</t>
   </si>
   <si>
     <t>Sensor + App</t>
@@ -125,8 +119,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,11 +172,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -192,14 +183,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -246,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,27 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,24 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -523,44 +470,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="189" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -595,12 +537,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -635,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -670,12 +612,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6">
         <v>1.18</v>
@@ -687,16 +629,16 @@
         <v>1.51</v>
       </c>
       <c r="F6">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="G6">
         <v>1.78</v>
       </c>
       <c r="H6">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="I6">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="J6">
         <v>2.92</v>
@@ -705,7 +647,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -716,7 +658,7 @@
         <v>3.03</v>
       </c>
       <c r="D7">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="E7">
         <v>2.88</v>
@@ -740,7 +682,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -775,7 +717,7 @@
         <v>3.05</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -823,21 +765,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -846,12 +788,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -873,7 +815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -884,7 +826,7 @@
         <v>1.58</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -895,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -906,7 +848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -926,39 +868,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
@@ -993,7 +935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +949,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1051,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1152,14 +1094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1170,7 +1112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1123,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,14 +1140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1216,18 +1158,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2">
-        <v>65.849999999999994</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="C2">
         <v>34.15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>

--- a/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
@@ -47,7 +47,7 @@
     <t>iqr</t>
   </si>
   <si>
-    <t>log_type</t>
+    <t>reporting_type</t>
   </si>
   <si>
     <t>Selfreport w/o App</t>

--- a/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
@@ -26,9 +26,6 @@
     <t>time_diff_to_naive_min</t>
   </si>
   <si>
-    <t>S0</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -41,6 +38,9 @@
     <t>S4</t>
   </si>
   <si>
+    <t>S5</t>
+  </si>
+  <si>
     <t>median</t>
   </si>
   <si>
@@ -50,28 +50,28 @@
     <t>reporting_type</t>
   </si>
   <si>
-    <t>Selfreport w/o App</t>
-  </si>
-  <si>
-    <t>Selfreport w/ App</t>
-  </si>
-  <si>
-    <t>App</t>
-  </si>
-  <si>
-    <t>Sensor + Selfreport w/o App</t>
-  </si>
-  <si>
-    <t>Sensor + Selfreport w/ App</t>
-  </si>
-  <si>
-    <t>Sensor + App</t>
+    <t>AW &amp; ST: Selfreport (w/o App)</t>
+  </si>
+  <si>
+    <t>AW &amp; ST: Selfreport (w/ App)</t>
+  </si>
+  <si>
+    <t>AW &amp; ST: App</t>
+  </si>
+  <si>
+    <t>AW: Sensor, ST: Selfreport (w/o App)</t>
+  </si>
+  <si>
+    <t>AW: Sensor, ST: Selfreport (w/ App)</t>
+  </si>
+  <si>
+    <t>AW: Sensor, ST: App</t>
   </si>
   <si>
     <t>cum_sampling_delay</t>
   </si>
   <si>
-    <t>Selfreport</t>
+    <t>AW &amp; ST: Selfreport</t>
   </si>
   <si>
     <t>subject</t>

--- a/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>sample</t>
   </si>
@@ -56,19 +56,19 @@
     <t>AW &amp; ST: Selfreport (w/ App)</t>
   </si>
   <si>
+    <t>AW: Sensor, ST: Selfreport (w/o App)</t>
+  </si>
+  <si>
+    <t>AW: Sensor, ST: Selfreport (w/ App)</t>
+  </si>
+  <si>
+    <t>AW: Sensor, ST: App</t>
+  </si>
+  <si>
+    <t>cum_sampling_delay</t>
+  </si>
+  <si>
     <t>AW &amp; ST: App</t>
-  </si>
-  <si>
-    <t>AW: Sensor, ST: Selfreport (w/o App)</t>
-  </si>
-  <si>
-    <t>AW: Sensor, ST: Selfreport (w/ App)</t>
-  </si>
-  <si>
-    <t>AW: Sensor, ST: App</t>
-  </si>
-  <si>
-    <t>cum_sampling_delay</t>
   </si>
   <si>
     <t>AW &amp; ST: Selfreport</t>
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,34 +617,34 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.9399999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="C6">
-        <v>1.18</v>
+        <v>3.03</v>
       </c>
       <c r="D6">
-        <v>1.49</v>
+        <v>4.35</v>
       </c>
       <c r="E6">
-        <v>1.51</v>
+        <v>2.88</v>
       </c>
       <c r="F6">
-        <v>2.03</v>
+        <v>5.07</v>
       </c>
       <c r="G6">
-        <v>1.78</v>
+        <v>3.12</v>
       </c>
       <c r="H6">
-        <v>2.47</v>
+        <v>5.4</v>
       </c>
       <c r="I6">
-        <v>2.05</v>
+        <v>3.38</v>
       </c>
       <c r="J6">
-        <v>2.92</v>
+        <v>5.43</v>
       </c>
       <c r="K6">
-        <v>2.15</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,34 +652,34 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.9</v>
+        <v>3.76</v>
       </c>
       <c r="C7">
-        <v>3.03</v>
+        <v>2.68</v>
       </c>
       <c r="D7">
-        <v>4.35</v>
+        <v>3.79</v>
       </c>
       <c r="E7">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="F7">
-        <v>5.07</v>
+        <v>4.62</v>
       </c>
       <c r="G7">
-        <v>3.12</v>
+        <v>2.73</v>
       </c>
       <c r="H7">
-        <v>5.4</v>
+        <v>5.18</v>
       </c>
       <c r="I7">
-        <v>3.38</v>
+        <v>3.15</v>
       </c>
       <c r="J7">
-        <v>5.43</v>
+        <v>5.52</v>
       </c>
       <c r="K7">
-        <v>3.43</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,68 +687,33 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>3.76</v>
+        <v>4.34</v>
       </c>
       <c r="C8">
-        <v>2.68</v>
+        <v>1.93</v>
       </c>
       <c r="D8">
-        <v>3.79</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="F8">
-        <v>4.62</v>
+        <v>5.68</v>
       </c>
       <c r="G8">
-        <v>2.73</v>
+        <v>2.59</v>
       </c>
       <c r="H8">
-        <v>5.18</v>
+        <v>6.16</v>
       </c>
       <c r="I8">
-        <v>3.15</v>
+        <v>2.61</v>
       </c>
       <c r="J8">
-        <v>5.52</v>
+        <v>6.63</v>
       </c>
       <c r="K8">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>4.34</v>
-      </c>
-      <c r="C9">
-        <v>1.93</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>2.1</v>
-      </c>
-      <c r="F9">
-        <v>5.68</v>
-      </c>
-      <c r="G9">
-        <v>2.59</v>
-      </c>
-      <c r="H9">
-        <v>6.16</v>
-      </c>
-      <c r="I9">
-        <v>2.61</v>
-      </c>
-      <c r="J9">
-        <v>6.63</v>
-      </c>
-      <c r="K9">
         <v>2.77</v>
       </c>
     </row>
@@ -766,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +740,7 @@
     <row r="1" spans="1:3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -820,10 +785,10 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -831,10 +796,10 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -842,20 +807,9 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.99</v>
       </c>
       <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>1.99</v>
-      </c>
-      <c r="C9">
         <v>1.64</v>
       </c>
     </row>
@@ -905,31 +859,31 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>17</v>
@@ -1114,7 +1068,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>96.25</v>
@@ -1160,7 +1114,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>65.84999999999999</v>
@@ -1171,7 +1125,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>60.78</v>

--- a/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
+++ b/experiments/2022_car_sampling_pnec/results/sample_time_results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>sample</t>
   </si>
@@ -56,6 +56,9 @@
     <t>AW &amp; ST: Selfreport (w/ App)</t>
   </si>
   <si>
+    <t>AW &amp; ST: App</t>
+  </si>
+  <si>
     <t>AW: Sensor, ST: Selfreport (w/o App)</t>
   </si>
   <si>
@@ -66,9 +69,6 @@
   </si>
   <si>
     <t>cum_sampling_delay</t>
-  </si>
-  <si>
-    <t>AW &amp; ST: App</t>
   </si>
   <si>
     <t>AW &amp; ST: Selfreport</t>
@@ -471,7 +471,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,34 +617,34 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>3.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6">
-        <v>3.03</v>
+        <v>1.18</v>
       </c>
       <c r="D6">
-        <v>4.35</v>
+        <v>1.49</v>
       </c>
       <c r="E6">
-        <v>2.88</v>
+        <v>1.51</v>
       </c>
       <c r="F6">
-        <v>5.07</v>
+        <v>2.03</v>
       </c>
       <c r="G6">
-        <v>3.12</v>
+        <v>1.78</v>
       </c>
       <c r="H6">
-        <v>5.4</v>
+        <v>2.47</v>
       </c>
       <c r="I6">
-        <v>3.38</v>
+        <v>2.05</v>
       </c>
       <c r="J6">
-        <v>5.43</v>
+        <v>2.92</v>
       </c>
       <c r="K6">
-        <v>3.43</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,34 +652,34 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.76</v>
+        <v>3.9</v>
       </c>
       <c r="C7">
-        <v>2.68</v>
+        <v>3.03</v>
       </c>
       <c r="D7">
-        <v>3.79</v>
+        <v>4.35</v>
       </c>
       <c r="E7">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="F7">
-        <v>4.62</v>
+        <v>5.07</v>
       </c>
       <c r="G7">
-        <v>2.73</v>
+        <v>3.12</v>
       </c>
       <c r="H7">
-        <v>5.18</v>
+        <v>5.4</v>
       </c>
       <c r="I7">
-        <v>3.15</v>
+        <v>3.38</v>
       </c>
       <c r="J7">
-        <v>5.52</v>
+        <v>5.43</v>
       </c>
       <c r="K7">
-        <v>3.05</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,33 +687,68 @@
         <v>14</v>
       </c>
       <c r="B8">
+        <v>3.76</v>
+      </c>
+      <c r="C8">
+        <v>2.68</v>
+      </c>
+      <c r="D8">
+        <v>3.79</v>
+      </c>
+      <c r="E8">
+        <v>2.78</v>
+      </c>
+      <c r="F8">
+        <v>4.62</v>
+      </c>
+      <c r="G8">
+        <v>2.73</v>
+      </c>
+      <c r="H8">
+        <v>5.18</v>
+      </c>
+      <c r="I8">
+        <v>3.15</v>
+      </c>
+      <c r="J8">
+        <v>5.52</v>
+      </c>
+      <c r="K8">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>4.34</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1.93</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2.1</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>5.68</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>2.59</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>6.16</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>2.61</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>6.63</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>2.77</v>
       </c>
     </row>
@@ -731,7 +766,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -740,7 +775,7 @@
     <row r="1" spans="1:3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1"/>
     </row>
@@ -785,10 +820,10 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -796,10 +831,10 @@
         <v>13</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -807,9 +842,20 @@
         <v>14</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
         <v>1.99</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>1.64</v>
       </c>
     </row>
@@ -859,31 +905,31 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>17</v>
@@ -1068,7 +1114,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>96.25</v>
@@ -1114,7 +1160,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>65.84999999999999</v>
@@ -1125,7 +1171,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>60.78</v>
